--- a/performance_data_example.xlsx
+++ b/performance_data_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave's Stuff\Finances\PERFORMANCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave's Stuff\Programs\GitHub_home\finance_performance_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A385688C-246B-447D-BBA5-7E79672EA9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324BDC9-FA36-4466-9381-8117213273EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="8355" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="8355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Value</t>
   </si>
@@ -124,9 +124,6 @@
     <t>S&amp;P GSCI</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>Map row</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -236,9 +239,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -397,7 +400,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -410,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,20 +427,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -456,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -483,6 +486,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -865,7 +869,7 @@
     </row>
     <row r="4" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -881,10 +885,10 @@
     </row>
     <row r="5" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -942,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>9</v>
@@ -963,29 +967,29 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>20</v>
@@ -999,7 +1003,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="34">
         <v>1111</v>
@@ -1071,10 +1075,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="35">
         <v>2000</v>
@@ -1143,10 +1147,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="35">
         <v>3000</v>
@@ -1276,7 +1280,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" s="34" t="s">
         <v>30</v>
@@ -1325,7 +1329,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="34" t="s">
         <v>31</v>
@@ -1626,9 +1630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7364DC7B-D72C-4E2A-992B-050B1645128A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1647,7 +1651,7 @@
     <row r="1" spans="1:11" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1657,12 +1661,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1681,13 +1685,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -1696,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -1708,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1719,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>5</v>
@@ -1732,7 +1736,7 @@
         <v>D Invest (1111)</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" ref="H4:H6" si="1">RIGHT(A4,4)</f>
@@ -1753,16 +1757,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
@@ -1772,7 +1776,7 @@
         <v>T Invest (abc2)</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1793,16 +1797,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
@@ -1812,7 +1816,7 @@
         <v>D IRA (-333)</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1834,6 +1838,9 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>23</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>22</v>
@@ -1851,6 +1858,9 @@
       <c r="A8" s="34" t="s">
         <v>27</v>
       </c>
+      <c r="D8" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="F8" s="34" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1875,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>24</v>
@@ -1881,7 +1894,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>28</v>
@@ -1897,10 +1913,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>30</v>
@@ -1915,8 +1934,11 @@
       <c r="A12" s="34" t="s">
         <v>31</v>
       </c>
+      <c r="D12" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>31</v>
@@ -1928,6 +1950,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1977,7 +2011,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2058,7 +2092,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="28" t="str">
         <f>INDEX(Map!$C:$C,MATCH(B$6,Map!$A:$A,0))</f>
@@ -2139,22 +2173,22 @@
         <v>Fixed 3 Month Treasurery</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="34">
         <v>1111</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>23</v>
@@ -2163,19 +2197,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="I6" s="58" t="s">
         <v>48</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>49</v>
       </c>
       <c r="J6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,16 +2233,16 @@
         <v>42766</v>
       </c>
       <c r="B8" s="51">
-        <f>B7*1.1</f>
-        <v>1100</v>
+        <f>B7*1.07</f>
+        <v>1070</v>
       </c>
       <c r="C8" s="51">
         <f>C7*0.99</f>
         <v>1980</v>
       </c>
       <c r="D8" s="51">
-        <f>D7*1.2</f>
-        <v>3600</v>
+        <f>D7*1.05</f>
+        <v>3150</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2217,16 +2251,16 @@
         <v>42794</v>
       </c>
       <c r="B9" s="51">
-        <f t="shared" ref="B9:B61" si="1">B8*1.1</f>
-        <v>1210</v>
+        <f t="shared" ref="B9:B61" si="1">B8*1.07</f>
+        <v>1144.9000000000001</v>
       </c>
       <c r="C9" s="51">
         <f t="shared" ref="C9:C61" si="2">C8*0.99</f>
         <v>1960.2</v>
       </c>
       <c r="D9" s="51">
-        <f t="shared" ref="D9:D61" si="3">D8*1.2</f>
-        <v>4320</v>
+        <f t="shared" ref="D9:D61" si="3">D8*1.05</f>
+        <v>3307.5</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
@@ -2242,7 +2276,7 @@
       </c>
       <c r="B10" s="51">
         <f t="shared" si="1"/>
-        <v>1331</v>
+        <v>1225.0430000000001</v>
       </c>
       <c r="C10" s="51">
         <f t="shared" si="2"/>
@@ -2250,7 +2284,7 @@
       </c>
       <c r="D10" s="51">
         <f t="shared" si="3"/>
-        <v>5184</v>
+        <v>3472.875</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
@@ -2266,7 +2300,7 @@
       </c>
       <c r="B11" s="51">
         <f t="shared" si="1"/>
-        <v>1464.1000000000001</v>
+        <v>1310.7960100000003</v>
       </c>
       <c r="C11" s="51">
         <f t="shared" si="2"/>
@@ -2274,7 +2308,7 @@
       </c>
       <c r="D11" s="51">
         <f t="shared" si="3"/>
-        <v>6220.8</v>
+        <v>3646.5187500000002</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
@@ -2290,7 +2324,7 @@
       </c>
       <c r="B12" s="51">
         <f t="shared" si="1"/>
-        <v>1610.5100000000002</v>
+        <v>1402.5517307000005</v>
       </c>
       <c r="C12" s="51">
         <f t="shared" si="2"/>
@@ -2298,7 +2332,7 @@
       </c>
       <c r="D12" s="51">
         <f t="shared" si="3"/>
-        <v>7464.96</v>
+        <v>3828.8446875000004</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -2314,7 +2348,7 @@
       </c>
       <c r="B13" s="51">
         <f t="shared" si="1"/>
-        <v>1771.5610000000004</v>
+        <v>1500.7303518490005</v>
       </c>
       <c r="C13" s="51">
         <f t="shared" si="2"/>
@@ -2322,7 +2356,7 @@
       </c>
       <c r="D13" s="51">
         <f t="shared" si="3"/>
-        <v>8957.9519999999993</v>
+        <v>4020.2869218750006</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -2338,7 +2372,7 @@
       </c>
       <c r="B14" s="51">
         <f t="shared" si="1"/>
-        <v>1948.7171000000005</v>
+        <v>1605.7814764784307</v>
       </c>
       <c r="C14" s="51">
         <f t="shared" si="2"/>
@@ -2346,7 +2380,7 @@
       </c>
       <c r="D14" s="51">
         <f t="shared" si="3"/>
-        <v>10749.542399999998</v>
+        <v>4221.3012679687508</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -2362,7 +2396,7 @@
       </c>
       <c r="B15" s="51">
         <f t="shared" si="1"/>
-        <v>2143.5888100000006</v>
+        <v>1718.186179831921</v>
       </c>
       <c r="C15" s="51">
         <f t="shared" si="2"/>
@@ -2370,7 +2404,7 @@
       </c>
       <c r="D15" s="51">
         <f t="shared" si="3"/>
-        <v>12899.450879999999</v>
+        <v>4432.3663313671886</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
@@ -2386,7 +2420,7 @@
       </c>
       <c r="B16" s="51">
         <f t="shared" si="1"/>
-        <v>2357.9476910000008</v>
+        <v>1838.4592124201556</v>
       </c>
       <c r="C16" s="51">
         <f t="shared" si="2"/>
@@ -2394,7 +2428,7 @@
       </c>
       <c r="D16" s="51">
         <f t="shared" si="3"/>
-        <v>15479.341055999997</v>
+        <v>4653.9846479355483</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
@@ -2410,7 +2444,7 @@
       </c>
       <c r="B17" s="51">
         <f t="shared" si="1"/>
-        <v>2593.7424601000012</v>
+        <v>1967.1513572895667</v>
       </c>
       <c r="C17" s="51">
         <f t="shared" si="2"/>
@@ -2418,7 +2452,7 @@
       </c>
       <c r="D17" s="51">
         <f t="shared" si="3"/>
-        <v>18575.209267199996</v>
+        <v>4886.6838803323262</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
@@ -2434,7 +2468,7 @@
       </c>
       <c r="B18" s="51">
         <f t="shared" si="1"/>
-        <v>2853.1167061100014</v>
+        <v>2104.8519522998363</v>
       </c>
       <c r="C18" s="51">
         <f t="shared" si="2"/>
@@ -2442,7 +2476,7 @@
       </c>
       <c r="D18" s="51">
         <f t="shared" si="3"/>
-        <v>22290.251120639994</v>
+        <v>5131.0180743489427</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
@@ -2457,7 +2491,7 @@
       </c>
       <c r="B19" s="51">
         <f t="shared" si="1"/>
-        <v>3138.4283767210018</v>
+        <v>2252.1915889608249</v>
       </c>
       <c r="C19" s="51">
         <f t="shared" si="2"/>
@@ -2465,7 +2499,7 @@
       </c>
       <c r="D19" s="51">
         <f t="shared" si="3"/>
-        <v>26748.301344767991</v>
+        <v>5387.5689780663897</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -2480,7 +2514,7 @@
       </c>
       <c r="B20" s="51">
         <f t="shared" si="1"/>
-        <v>3452.2712143931021</v>
+        <v>2409.8450001880828</v>
       </c>
       <c r="C20" s="51">
         <f t="shared" si="2"/>
@@ -2488,7 +2522,7 @@
       </c>
       <c r="D20" s="51">
         <f t="shared" si="3"/>
-        <v>32097.961613721589</v>
+        <v>5656.9474269697093</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
@@ -2504,7 +2538,7 @@
       </c>
       <c r="B21" s="51">
         <f t="shared" si="1"/>
-        <v>3797.4983358324125</v>
+        <v>2578.5341502012488</v>
       </c>
       <c r="C21" s="51">
         <f t="shared" si="2"/>
@@ -2512,7 +2546,7 @@
       </c>
       <c r="D21" s="51">
         <f t="shared" si="3"/>
-        <v>38517.553936465905</v>
+        <v>5939.7947983181948</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
@@ -2528,7 +2562,7 @@
       </c>
       <c r="B22" s="51">
         <f t="shared" si="1"/>
-        <v>4177.248169415654</v>
+        <v>2759.0315407153366</v>
       </c>
       <c r="C22" s="51">
         <f t="shared" si="2"/>
@@ -2536,7 +2570,7 @@
       </c>
       <c r="D22" s="51">
         <f t="shared" si="3"/>
-        <v>46221.064723759082</v>
+        <v>6236.7845382341047</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
@@ -2552,7 +2586,7 @@
       </c>
       <c r="B23" s="51">
         <f t="shared" si="1"/>
-        <v>4594.9729863572202</v>
+        <v>2952.1637485654105</v>
       </c>
       <c r="C23" s="51">
         <f t="shared" si="2"/>
@@ -2560,7 +2594,7 @@
       </c>
       <c r="D23" s="51">
         <f t="shared" si="3"/>
-        <v>55465.277668510898</v>
+        <v>6548.6237651458105</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
@@ -2576,7 +2610,7 @@
       </c>
       <c r="B24" s="51">
         <f t="shared" si="1"/>
-        <v>5054.4702849929427</v>
+        <v>3158.8152109649895</v>
       </c>
       <c r="C24" s="51">
         <f t="shared" si="2"/>
@@ -2584,7 +2618,7 @@
       </c>
       <c r="D24" s="51">
         <f t="shared" si="3"/>
-        <v>66558.333202213078</v>
+        <v>6876.0549534031015</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
@@ -2600,7 +2634,7 @@
       </c>
       <c r="B25" s="51">
         <f t="shared" si="1"/>
-        <v>5559.9173134922376</v>
+        <v>3379.932275732539</v>
       </c>
       <c r="C25" s="51">
         <f t="shared" si="2"/>
@@ -2608,7 +2642,7 @@
       </c>
       <c r="D25" s="51">
         <f t="shared" si="3"/>
-        <v>79869.999842655685</v>
+        <v>7219.857701073257</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
@@ -2624,7 +2658,7 @@
       </c>
       <c r="B26" s="51">
         <f t="shared" si="1"/>
-        <v>6115.9090448414618</v>
+        <v>3616.527535033817</v>
       </c>
       <c r="C26" s="51">
         <f t="shared" si="2"/>
@@ -2632,7 +2666,7 @@
       </c>
       <c r="D26" s="51">
         <f t="shared" si="3"/>
-        <v>95843.999811186819</v>
+        <v>7580.8505861269205</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
@@ -2648,7 +2682,7 @@
       </c>
       <c r="B27" s="51">
         <f t="shared" si="1"/>
-        <v>6727.4999493256082</v>
+        <v>3869.6844624861842</v>
       </c>
       <c r="C27" s="51">
         <f t="shared" si="2"/>
@@ -2656,7 +2690,7 @@
       </c>
       <c r="D27" s="51">
         <f t="shared" si="3"/>
-        <v>115012.79977342418</v>
+        <v>7959.8931154332668</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
@@ -2672,7 +2706,7 @@
       </c>
       <c r="B28" s="51">
         <f t="shared" si="1"/>
-        <v>7400.2499442581693</v>
+        <v>4140.5623748602175</v>
       </c>
       <c r="C28" s="51">
         <f t="shared" si="2"/>
@@ -2680,7 +2714,7 @@
       </c>
       <c r="D28" s="51">
         <f t="shared" si="3"/>
-        <v>138015.359728109</v>
+        <v>8357.8877712049307</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
@@ -2696,7 +2730,7 @@
       </c>
       <c r="B29" s="51">
         <f t="shared" si="1"/>
-        <v>8140.2749386839869</v>
+        <v>4430.4017411004334</v>
       </c>
       <c r="C29" s="51">
         <f t="shared" si="2"/>
@@ -2704,7 +2738,7 @@
       </c>
       <c r="D29" s="51">
         <f t="shared" si="3"/>
-        <v>165618.43167373081</v>
+        <v>8775.7821597651782</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
@@ -2720,7 +2754,7 @@
       </c>
       <c r="B30" s="51">
         <f t="shared" si="1"/>
-        <v>8954.3024325523857</v>
+        <v>4740.5298629774643</v>
       </c>
       <c r="C30" s="51">
         <f t="shared" si="2"/>
@@ -2728,7 +2762,7 @@
       </c>
       <c r="D30" s="51">
         <f t="shared" si="3"/>
-        <v>198742.11800847697</v>
+        <v>9214.5712677534375</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -2743,7 +2777,7 @@
       </c>
       <c r="B31" s="51">
         <f t="shared" si="1"/>
-        <v>9849.7326758076251</v>
+        <v>5072.3669533858874</v>
       </c>
       <c r="C31" s="51">
         <f t="shared" si="2"/>
@@ -2751,7 +2785,7 @@
       </c>
       <c r="D31" s="51">
         <f t="shared" si="3"/>
-        <v>238490.54161017237</v>
+        <v>9675.2998311411102</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -2767,7 +2801,7 @@
       </c>
       <c r="B32" s="51">
         <f t="shared" si="1"/>
-        <v>10834.705943388388</v>
+        <v>5427.4326401229</v>
       </c>
       <c r="C32" s="51">
         <f t="shared" si="2"/>
@@ -2775,7 +2809,7 @@
       </c>
       <c r="D32" s="51">
         <f t="shared" si="3"/>
-        <v>286188.64993220684</v>
+        <v>10159.064822698167</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -2791,7 +2825,7 @@
       </c>
       <c r="B33" s="51">
         <f t="shared" si="1"/>
-        <v>11918.176537727228</v>
+        <v>5807.3529249315034</v>
       </c>
       <c r="C33" s="51">
         <f t="shared" si="2"/>
@@ -2799,7 +2833,7 @@
       </c>
       <c r="D33" s="51">
         <f t="shared" si="3"/>
-        <v>343426.37991864822</v>
+        <v>10667.018063833075</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
@@ -2815,7 +2849,7 @@
       </c>
       <c r="B34" s="51">
         <f t="shared" si="1"/>
-        <v>13109.994191499951</v>
+        <v>6213.8676296767089</v>
       </c>
       <c r="C34" s="51">
         <f t="shared" si="2"/>
@@ -2823,7 +2857,7 @@
       </c>
       <c r="D34" s="51">
         <f t="shared" si="3"/>
-        <v>412111.65590237785</v>
+        <v>11200.368967024729</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
@@ -2839,7 +2873,7 @@
       </c>
       <c r="B35" s="51">
         <f t="shared" si="1"/>
-        <v>14420.993610649946</v>
+        <v>6648.8383637540792</v>
       </c>
       <c r="C35" s="51">
         <f t="shared" si="2"/>
@@ -2847,7 +2881,7 @@
       </c>
       <c r="D35" s="51">
         <f t="shared" si="3"/>
-        <v>494533.98708285339</v>
+        <v>11760.387415375966</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
@@ -2863,7 +2897,7 @@
       </c>
       <c r="B36" s="51">
         <f t="shared" si="1"/>
-        <v>15863.092971714943</v>
+        <v>7114.2570492168652</v>
       </c>
       <c r="C36" s="51">
         <f t="shared" si="2"/>
@@ -2871,7 +2905,7 @@
       </c>
       <c r="D36" s="51">
         <f t="shared" si="3"/>
-        <v>593440.78449942404</v>
+        <v>12348.406786144766</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
@@ -2887,7 +2921,7 @@
       </c>
       <c r="B37" s="51">
         <f t="shared" si="1"/>
-        <v>17449.402268886439</v>
+        <v>7612.2550426620464</v>
       </c>
       <c r="C37" s="51">
         <f t="shared" si="2"/>
@@ -2895,7 +2929,7 @@
       </c>
       <c r="D37" s="51">
         <f t="shared" si="3"/>
-        <v>712128.94139930885</v>
+        <v>12965.827125452004</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
@@ -2911,7 +2945,7 @@
       </c>
       <c r="B38" s="51">
         <f t="shared" si="1"/>
-        <v>19194.342495775083</v>
+        <v>8145.1128956483899</v>
       </c>
       <c r="C38" s="51">
         <f t="shared" si="2"/>
@@ -2919,7 +2953,7 @@
       </c>
       <c r="D38" s="51">
         <f t="shared" si="3"/>
-        <v>854554.72967917065</v>
+        <v>13614.118481724605</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
@@ -2935,7 +2969,7 @@
       </c>
       <c r="B39" s="51">
         <f t="shared" si="1"/>
-        <v>21113.776745352592</v>
+        <v>8715.2707983437776</v>
       </c>
       <c r="C39" s="51">
         <f t="shared" si="2"/>
@@ -2943,7 +2977,7 @@
       </c>
       <c r="D39" s="51">
         <f t="shared" si="3"/>
-        <v>1025465.6756150047</v>
+        <v>14294.824405810836</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47"/>
@@ -2959,7 +2993,7 @@
       </c>
       <c r="B40" s="51">
         <f t="shared" si="1"/>
-        <v>23225.154419887855</v>
+        <v>9325.3397542278435</v>
       </c>
       <c r="C40" s="51">
         <f t="shared" si="2"/>
@@ -2967,7 +3001,7 @@
       </c>
       <c r="D40" s="51">
         <f t="shared" si="3"/>
-        <v>1230558.8107380057</v>
+        <v>15009.565626101377</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="47"/>
@@ -2983,7 +3017,7 @@
       </c>
       <c r="B41" s="51">
         <f t="shared" si="1"/>
-        <v>25547.669861876642</v>
+        <v>9978.1135370237935</v>
       </c>
       <c r="C41" s="51">
         <f t="shared" si="2"/>
@@ -2991,7 +3025,7 @@
       </c>
       <c r="D41" s="51">
         <f t="shared" si="3"/>
-        <v>1476670.5728856067</v>
+        <v>15760.043907406447</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
@@ -3007,7 +3041,7 @@
       </c>
       <c r="B42" s="51">
         <f t="shared" si="1"/>
-        <v>28102.43684806431</v>
+        <v>10676.581484615459</v>
       </c>
       <c r="C42" s="51">
         <f t="shared" si="2"/>
@@ -3015,7 +3049,7 @@
       </c>
       <c r="D42" s="51">
         <f t="shared" si="3"/>
-        <v>1772004.687462728</v>
+        <v>16548.046102776771</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,7 +3059,7 @@
       </c>
       <c r="B43" s="51">
         <f t="shared" si="1"/>
-        <v>30912.680532870741</v>
+        <v>11423.942188538542</v>
       </c>
       <c r="C43" s="51">
         <f t="shared" si="2"/>
@@ -3033,7 +3067,7 @@
       </c>
       <c r="D43" s="51">
         <f t="shared" si="3"/>
-        <v>2126405.6249552737</v>
+        <v>17375.44840791561</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3043,7 +3077,7 @@
       </c>
       <c r="B44" s="51">
         <f t="shared" si="1"/>
-        <v>34003.948586157821</v>
+        <v>12223.61814173624</v>
       </c>
       <c r="C44" s="51">
         <f t="shared" si="2"/>
@@ -3051,7 +3085,7 @@
       </c>
       <c r="D44" s="51">
         <f t="shared" si="3"/>
-        <v>2551686.7499463283</v>
+        <v>18244.220828311391</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,7 +3095,7 @@
       </c>
       <c r="B45" s="51">
         <f t="shared" si="1"/>
-        <v>37404.343444773607</v>
+        <v>13079.271411657777</v>
       </c>
       <c r="C45" s="51">
         <f t="shared" si="2"/>
@@ -3069,7 +3103,7 @@
       </c>
       <c r="D45" s="51">
         <f t="shared" si="3"/>
-        <v>3062024.099935594</v>
+        <v>19156.431869726959</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3078,7 +3112,7 @@
       </c>
       <c r="B46" s="51">
         <f t="shared" si="1"/>
-        <v>41144.777789250969</v>
+        <v>13994.820410473822</v>
       </c>
       <c r="C46" s="51">
         <f t="shared" si="2"/>
@@ -3086,7 +3120,7 @@
       </c>
       <c r="D46" s="51">
         <f t="shared" si="3"/>
-        <v>3674428.9199227127</v>
+        <v>20114.253463213307</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3096,7 +3130,7 @@
       </c>
       <c r="B47" s="51">
         <f t="shared" si="1"/>
-        <v>45259.255568176071</v>
+        <v>14974.457839206991</v>
       </c>
       <c r="C47" s="51">
         <f t="shared" si="2"/>
@@ -3104,7 +3138,7 @@
       </c>
       <c r="D47" s="51">
         <f t="shared" si="3"/>
-        <v>4409314.7039072551</v>
+        <v>21119.966136373972</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3113,7 +3147,7 @@
       </c>
       <c r="B48" s="51">
         <f t="shared" si="1"/>
-        <v>49785.18112499368</v>
+        <v>16022.669887951481</v>
       </c>
       <c r="C48" s="51">
         <f t="shared" si="2"/>
@@ -3121,7 +3155,7 @@
       </c>
       <c r="D48" s="51">
         <f t="shared" si="3"/>
-        <v>5291177.6446887059</v>
+        <v>22175.964443192672</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,7 +3164,7 @@
       </c>
       <c r="B49" s="51">
         <f t="shared" si="1"/>
-        <v>54763.699237493056</v>
+        <v>17144.256780108084</v>
       </c>
       <c r="C49" s="51">
         <f t="shared" si="2"/>
@@ -3138,17 +3172,17 @@
       </c>
       <c r="D49" s="51">
         <f t="shared" si="3"/>
-        <v>6349413.1736264471</v>
+        <v>23284.762665352308</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32">
-        <f t="shared" ref="A50:A62" si="6">EDATE(A49+1,1)-1</f>
+        <f t="shared" ref="A50:A61" si="6">EDATE(A49+1,1)-1</f>
         <v>43951</v>
       </c>
       <c r="B50" s="51">
         <f t="shared" si="1"/>
-        <v>60240.069161242369</v>
+        <v>18344.354754715652</v>
       </c>
       <c r="C50" s="51">
         <f t="shared" si="2"/>
@@ -3156,7 +3190,7 @@
       </c>
       <c r="D50" s="51">
         <f t="shared" si="3"/>
-        <v>7619295.8083517365</v>
+        <v>24449.000798619923</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,7 +3200,7 @@
       </c>
       <c r="B51" s="51">
         <f t="shared" si="1"/>
-        <v>66264.076077366612</v>
+        <v>19628.459587545749</v>
       </c>
       <c r="C51" s="51">
         <f t="shared" si="2"/>
@@ -3174,7 +3208,7 @@
       </c>
       <c r="D51" s="51">
         <f t="shared" si="3"/>
-        <v>9143154.9700220842</v>
+        <v>25671.450838550922</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,7 +3218,7 @@
       </c>
       <c r="B52" s="51">
         <f t="shared" si="1"/>
-        <v>72890.483685103274</v>
+        <v>21002.451758673953</v>
       </c>
       <c r="C52" s="51">
         <f t="shared" si="2"/>
@@ -3192,7 +3226,7 @@
       </c>
       <c r="D52" s="51">
         <f t="shared" si="3"/>
-        <v>10971785.964026501</v>
+        <v>26955.023380478469</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3202,7 +3236,7 @@
       </c>
       <c r="B53" s="51">
         <f t="shared" si="1"/>
-        <v>80179.532053613613</v>
+        <v>22472.62338178113</v>
       </c>
       <c r="C53" s="51">
         <f t="shared" si="2"/>
@@ -3210,7 +3244,7 @@
       </c>
       <c r="D53" s="51">
         <f t="shared" si="3"/>
-        <v>13166143.156831801</v>
+        <v>28302.774549502396</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3220,7 +3254,7 @@
       </c>
       <c r="B54" s="51">
         <f t="shared" si="1"/>
-        <v>88197.485258974979</v>
+        <v>24045.707018505811</v>
       </c>
       <c r="C54" s="51">
         <f t="shared" si="2"/>
@@ -3228,7 +3262,7 @@
       </c>
       <c r="D54" s="51">
         <f t="shared" si="3"/>
-        <v>15799371.78819816</v>
+        <v>29717.913276977517</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3272,7 @@
       </c>
       <c r="B55" s="51">
         <f t="shared" si="1"/>
-        <v>97017.233784872486</v>
+        <v>25728.906509801218</v>
       </c>
       <c r="C55" s="51">
         <f t="shared" si="2"/>
@@ -3246,7 +3280,7 @@
       </c>
       <c r="D55" s="51">
         <f t="shared" si="3"/>
-        <v>18959246.145837791</v>
+        <v>31203.808940826395</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3256,7 +3290,7 @@
       </c>
       <c r="B56" s="51">
         <f t="shared" si="1"/>
-        <v>106718.95716335974</v>
+        <v>27529.929965487303</v>
       </c>
       <c r="C56" s="51">
         <f t="shared" si="2"/>
@@ -3264,7 +3298,7 @@
       </c>
       <c r="D56" s="51">
         <f t="shared" si="3"/>
-        <v>22751095.37500535</v>
+        <v>32763.999387867716</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3274,7 +3308,7 @@
       </c>
       <c r="B57" s="51">
         <f t="shared" si="1"/>
-        <v>117390.85287969573</v>
+        <v>29457.025063071414</v>
       </c>
       <c r="C57" s="51">
         <f t="shared" si="2"/>
@@ -3282,7 +3316,7 @@
       </c>
       <c r="D57" s="51">
         <f t="shared" si="3"/>
-        <v>27301314.450006418</v>
+        <v>34402.199357261103</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3292,7 +3326,7 @@
       </c>
       <c r="B58" s="51">
         <f t="shared" si="1"/>
-        <v>129129.93816766531</v>
+        <v>31519.016817486416</v>
       </c>
       <c r="C58" s="51">
         <f t="shared" si="2"/>
@@ -3300,7 +3334,7 @@
       </c>
       <c r="D58" s="51">
         <f t="shared" si="3"/>
-        <v>32761577.3400077</v>
+        <v>36122.309325124159</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3310,7 +3344,7 @@
       </c>
       <c r="B59" s="51">
         <f t="shared" si="1"/>
-        <v>142042.93198443187</v>
+        <v>33725.347994710464</v>
       </c>
       <c r="C59" s="51">
         <f t="shared" si="2"/>
@@ -3318,7 +3352,7 @@
       </c>
       <c r="D59" s="51">
         <f t="shared" si="3"/>
-        <v>39313892.808009237</v>
+        <v>37928.42479138037</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,7 +3362,7 @@
       </c>
       <c r="B60" s="51">
         <f t="shared" si="1"/>
-        <v>156247.22518287506</v>
+        <v>36086.122354340201</v>
       </c>
       <c r="C60" s="51">
         <f t="shared" si="2"/>
@@ -3336,7 +3370,7 @@
       </c>
       <c r="D60" s="51">
         <f t="shared" si="3"/>
-        <v>47176671.369611084</v>
+        <v>39824.846030949389</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3346,7 +3380,7 @@
       </c>
       <c r="B61" s="51">
         <f t="shared" si="1"/>
-        <v>171871.94770116257</v>
+        <v>38612.15091914402</v>
       </c>
       <c r="C61" s="51">
         <f t="shared" si="2"/>
@@ -3354,7 +3388,7 @@
       </c>
       <c r="D61" s="51">
         <f t="shared" si="3"/>
-        <v>56612005.643533297</v>
+        <v>41816.08833249686</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3373,11 +3407,11 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3458,7 +3492,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="28" t="str">
         <f>INDEX(Map!$C:$C,MATCH(B$6,Map!$A:$A,0))</f>
@@ -3539,22 +3573,22 @@
         <v>Fixed 3 Month Treasurery</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="34">
         <v>1111</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>23</v>
@@ -3563,19 +3597,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="I6" s="58" t="s">
         <v>48</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>49</v>
       </c>
       <c r="J6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
